--- a/level-3/hackerearth/phase-3-graph-2/hackerearth-phase-3-graph-2.xlsx
+++ b/level-3/hackerearth/phase-3-graph-2/hackerearth-phase-3-graph-2.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907CD54-B489-416F-B4C5-47E583D1832F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5224E5-E7FB-4E84-A5AF-909F4A2A4358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - graph 2" sheetId="14" r:id="rId1"/>
+    <sheet name="graph-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -720,12 +733,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -738,22 +751,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,161 +801,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1572,81 +1422,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C185)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C185)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D185)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E185)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F185)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G185)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H185)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1665,17 +1515,17 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11">
-        <f t="shared" ref="H4:H15" si="0">SUM(C4:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H15" si="1">SUM(C4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="10" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1686,17 +1536,17 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="10" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1707,17 +1557,17 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="10" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1728,17 +1578,17 @@
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1749,17 +1599,17 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="10" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1770,17 +1620,17 @@
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="10" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1791,17 +1641,17 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="10" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1812,17 +1662,17 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="10" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1833,17 +1683,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="10" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1854,17 +1704,17 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1875,17 +1725,17 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="10" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1896,17 +1746,17 @@
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="10" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1917,17 +1767,17 @@
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11">
-        <f t="shared" ref="H16:H43" si="1">SUM(C16:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
+        <f t="shared" ref="H16:H43" si="2">SUM(C16:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="10" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1938,17 +1788,17 @@
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1959,17 +1809,17 @@
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="10" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1980,17 +1830,17 @@
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2001,17 +1851,17 @@
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2022,17 +1872,17 @@
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2043,17 +1893,17 @@
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2064,17 +1914,17 @@
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2085,17 +1935,17 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2106,17 +1956,17 @@
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2127,17 +1977,17 @@
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2148,17 +1998,17 @@
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2169,17 +2019,17 @@
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2190,17 +2040,17 @@
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2211,17 +2061,17 @@
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2232,17 +2082,17 @@
       <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2253,17 +2103,17 @@
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2274,17 +2124,17 @@
       <c r="B33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2295,17 +2145,17 @@
       <c r="B34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="10" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2316,17 +2166,17 @@
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2337,17 +2187,17 @@
       <c r="B36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2358,17 +2208,17 @@
       <c r="B37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2379,17 +2229,17 @@
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2400,17 +2250,17 @@
       <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2421,17 +2271,17 @@
       <c r="B40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2442,17 +2292,17 @@
       <c r="B41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2463,17 +2313,17 @@
       <c r="B42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2484,17 +2334,17 @@
       <c r="B43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2511,11 +2361,11 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" ref="H44:H50" si="2">SUM(C44:G44)</f>
+        <f t="shared" ref="H44:H50" si="3">SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2526,17 +2376,17 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2553,11 +2403,11 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2574,11 +2424,11 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2595,11 +2445,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2616,11 +2466,11 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2631,17 +2481,17 @@
       <c r="B50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2652,17 +2502,17 @@
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" ref="H51:H82" si="3">SUM(C51:G51)</f>
+        <f t="shared" ref="H51:H82" si="4">SUM(C51:G51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2673,17 +2523,17 @@
       <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2694,17 +2544,17 @@
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2721,11 +2571,11 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2736,17 +2586,17 @@
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2763,11 +2613,11 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2784,11 +2634,11 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2805,11 +2655,11 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2826,11 +2676,11 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2841,17 +2691,17 @@
       <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2862,17 +2712,17 @@
       <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2883,17 +2733,17 @@
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="13" t="s">
+      <c r="J62" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2904,17 +2754,17 @@
       <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2925,17 +2775,17 @@
       <c r="B64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2952,11 +2802,11 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="13" t="s">
+      <c r="J65" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2967,17 +2817,17 @@
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2994,11 +2844,11 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3015,11 +2865,11 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3036,11 +2886,11 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3057,11 +2907,11 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="13" t="s">
+      <c r="J70" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3072,17 +2922,17 @@
       <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3093,17 +2943,17 @@
       <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="13" t="s">
+      <c r="J72" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3120,11 +2970,11 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3135,17 +2985,17 @@
       <c r="B74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3156,17 +3006,17 @@
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3183,11 +3033,11 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I76" s="2"/>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3198,17 +3048,17 @@
       <c r="B77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I77" s="2"/>
-      <c r="J77" s="13" t="s">
+      <c r="J77" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3219,17 +3069,17 @@
       <c r="B78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="13" t="s">
+      <c r="J78" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3240,17 +3090,17 @@
       <c r="B79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="13" t="s">
+      <c r="J79" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3261,16 +3111,16 @@
       <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3281,16 +3131,16 @@
       <c r="B81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3307,10 +3157,10 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3327,10 +3177,10 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" ref="H83:H101" si="4">SUM(C83:G83)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="14" t="s">
+        <f t="shared" ref="H83:H101" si="5">SUM(C83:G83)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3347,10 +3197,10 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3367,10 +3217,10 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3381,16 +3231,16 @@
       <c r="B86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3401,16 +3251,16 @@
       <c r="B87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3427,10 +3277,10 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3441,17 +3291,17 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="13" t="s">
+      <c r="J89" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3468,11 +3318,11 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I90" s="2"/>
-      <c r="J90" s="13" t="s">
+      <c r="J90" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3483,17 +3333,17 @@
       <c r="B91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I91" s="2"/>
-      <c r="J91" s="13" t="s">
+      <c r="J91" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3510,11 +3360,11 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="13" t="s">
+      <c r="J92" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3531,11 +3381,11 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="13" t="s">
+      <c r="J93" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3552,11 +3402,11 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3573,11 +3423,11 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I95" s="2"/>
-      <c r="J95" s="13" t="s">
+      <c r="J95" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3588,17 +3438,17 @@
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="13" t="s">
+      <c r="J96" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3609,17 +3459,17 @@
       <c r="B97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="13" t="s">
+      <c r="J97" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3630,17 +3480,17 @@
       <c r="B98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I98" s="2"/>
-      <c r="J98" s="13" t="s">
+      <c r="J98" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3651,17 +3501,17 @@
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I99" s="2"/>
-      <c r="J99" s="13" t="s">
+      <c r="J99" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3678,11 +3528,11 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I100" s="2"/>
-      <c r="J100" s="13" t="s">
+      <c r="J100" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3693,17 +3543,17 @@
       <c r="B101" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I101" s="2"/>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3714,16 +3564,16 @@
       <c r="B102" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="11">
-        <f t="shared" ref="H102:H133" si="5">SUM(C102:G102)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="14" t="s">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7">
+        <f t="shared" ref="H102:H133" si="6">SUM(C102:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3734,16 +3584,16 @@
       <c r="B103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="14" t="s">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3754,16 +3604,16 @@
       <c r="B104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="14" t="s">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3774,16 +3624,16 @@
       <c r="B105" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="14" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3794,16 +3644,16 @@
       <c r="B106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="14" t="s">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3814,16 +3664,16 @@
       <c r="B107" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="14" t="s">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3834,16 +3684,16 @@
       <c r="B108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="14" t="s">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3854,16 +3704,16 @@
       <c r="B109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="14" t="s">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3874,16 +3724,16 @@
       <c r="B110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="14" t="s">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3894,16 +3744,16 @@
       <c r="B111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="14" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3914,16 +3764,16 @@
       <c r="B112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="14" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3934,16 +3784,16 @@
       <c r="B113" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="14" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3954,16 +3804,16 @@
       <c r="B114" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="14" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3974,16 +3824,16 @@
       <c r="B115" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="14" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3994,16 +3844,16 @@
       <c r="B116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="14" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4014,16 +3864,16 @@
       <c r="B117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="14" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4034,16 +3884,16 @@
       <c r="B118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="14" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4054,16 +3904,16 @@
       <c r="B119" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="14" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4074,16 +3924,16 @@
       <c r="B120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="14" t="s">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4094,16 +3944,16 @@
       <c r="B121" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="14" t="s">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4114,16 +3964,16 @@
       <c r="B122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="14" t="s">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4134,16 +3984,16 @@
       <c r="B123" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="14" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4154,16 +4004,16 @@
       <c r="B124" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="14" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4174,16 +4024,16 @@
       <c r="B125" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="14" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4194,16 +4044,16 @@
       <c r="B126" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="14" t="s">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4214,16 +4064,16 @@
       <c r="B127" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="14" t="s">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4234,16 +4084,16 @@
       <c r="B128" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="14" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4254,16 +4104,16 @@
       <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="14" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4274,16 +4124,16 @@
       <c r="B130" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="14" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4294,16 +4144,16 @@
       <c r="B131" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="14" t="s">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4314,16 +4164,16 @@
       <c r="B132" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="14" t="s">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4334,16 +4184,16 @@
       <c r="B133" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="14" t="s">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4354,16 +4204,16 @@
       <c r="B134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="11">
-        <f t="shared" ref="H134:H164" si="6">SUM(C134:G134)</f>
-        <v>0</v>
-      </c>
-      <c r="J134" s="14" t="s">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="7">
+        <f t="shared" ref="H134:H164" si="7">SUM(C134:G134)</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4374,16 +4224,16 @@
       <c r="B135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="14" t="s">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4394,16 +4244,16 @@
       <c r="B136" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J136" s="14" t="s">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4414,16 +4264,16 @@
       <c r="B137" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="14" t="s">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4434,16 +4284,16 @@
       <c r="B138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J138" s="14" t="s">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4454,16 +4304,16 @@
       <c r="B139" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="14" t="s">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4474,16 +4324,16 @@
       <c r="B140" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="14" t="s">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4494,16 +4344,16 @@
       <c r="B141" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="14" t="s">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4514,11 +4364,11 @@
       <c r="B142" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="14" t="s">
+      <c r="H142" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4529,11 +4379,11 @@
       <c r="B143" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J143" s="14" t="s">
+      <c r="H143" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4544,11 +4394,11 @@
       <c r="B144" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H144" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J144" s="14" t="s">
+      <c r="H144" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4559,11 +4409,11 @@
       <c r="B145" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H145" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="14" t="s">
+      <c r="H145" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4574,11 +4424,11 @@
       <c r="B146" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H146" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="14" t="s">
+      <c r="H146" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4589,11 +4439,11 @@
       <c r="B147" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="14" t="s">
+      <c r="H147" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4604,11 +4454,11 @@
       <c r="B148" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H148" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="14" t="s">
+      <c r="H148" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4619,11 +4469,11 @@
       <c r="B149" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H149" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="14" t="s">
+      <c r="H149" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4634,11 +4484,11 @@
       <c r="B150" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H150" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="14" t="s">
+      <c r="H150" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4649,11 +4499,11 @@
       <c r="B151" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H151" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="14" t="s">
+      <c r="H151" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4664,11 +4514,11 @@
       <c r="B152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H152" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="14" t="s">
+      <c r="H152" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4679,11 +4529,11 @@
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H153" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="14" t="s">
+      <c r="H153" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4694,11 +4544,11 @@
       <c r="B154" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H154" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="14" t="s">
+      <c r="H154" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4709,11 +4559,11 @@
       <c r="B155" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H155" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="14" t="s">
+      <c r="H155" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4724,11 +4574,11 @@
       <c r="B156" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H156" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J156" s="14" t="s">
+      <c r="H156" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4739,11 +4589,11 @@
       <c r="B157" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H157" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="14" t="s">
+      <c r="H157" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4754,11 +4604,11 @@
       <c r="B158" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H158" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="14" t="s">
+      <c r="H158" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4769,11 +4619,11 @@
       <c r="B159" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H159" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J159" s="14" t="s">
+      <c r="H159" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4784,11 +4634,11 @@
       <c r="B160" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H160" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="14" t="s">
+      <c r="H160" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4799,11 +4649,11 @@
       <c r="B161" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H161" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="14" t="s">
+      <c r="H161" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4814,11 +4664,11 @@
       <c r="B162" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H162" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="14" t="s">
+      <c r="H162" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4829,11 +4679,11 @@
       <c r="B163" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H163" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="14" t="s">
+      <c r="H163" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4844,11 +4694,11 @@
       <c r="B164" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H164" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="14" t="s">
+      <c r="H164" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4856,211 +4706,211 @@
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="H165" s="7"/>
-      <c r="J165" s="14"/>
+      <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="H166" s="7"/>
-      <c r="J166" s="14"/>
+      <c r="J166" s="11"/>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="H167" s="7"/>
-      <c r="J167" s="14"/>
+      <c r="J167" s="11"/>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="H168" s="7"/>
-      <c r="J168" s="14"/>
+      <c r="J168" s="11"/>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="H169" s="7"/>
-      <c r="J169" s="14"/>
+      <c r="J169" s="11"/>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="H170" s="7"/>
-      <c r="J170" s="14"/>
+      <c r="J170" s="11"/>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="H171" s="7"/>
-      <c r="J171" s="14"/>
+      <c r="J171" s="11"/>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="H172" s="7"/>
-      <c r="J172" s="14"/>
+      <c r="J172" s="11"/>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="H173" s="7"/>
-      <c r="J173" s="14"/>
+      <c r="J173" s="11"/>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="H174" s="7"/>
-      <c r="J174" s="14"/>
+      <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="H175" s="7"/>
-      <c r="J175" s="14"/>
+      <c r="J175" s="11"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="H176" s="7"/>
-      <c r="J176" s="14"/>
+      <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="H177" s="7"/>
-      <c r="J177" s="14"/>
+      <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="H178" s="7"/>
-      <c r="J178" s="14"/>
+      <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="H179" s="7"/>
-      <c r="J179" s="14"/>
+      <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="H180" s="7"/>
-      <c r="J180" s="14"/>
+      <c r="J180" s="11"/>
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="H181" s="7"/>
-      <c r="J181" s="14"/>
+      <c r="J181" s="11"/>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="H182" s="7"/>
-      <c r="J182" s="14"/>
+      <c r="J182" s="11"/>
     </row>
     <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="H183" s="7"/>
-      <c r="J183" s="14"/>
+      <c r="J183" s="11"/>
     </row>
     <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="H184" s="7"/>
-      <c r="J184" s="14"/>
+      <c r="J184" s="11"/>
     </row>
     <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="H185" s="7"/>
-      <c r="J185" s="14"/>
+      <c r="J185" s="11"/>
     </row>
     <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="H186" s="7"/>
-      <c r="J186" s="14"/>
+      <c r="J186" s="11"/>
     </row>
     <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="H187" s="7"/>
-      <c r="J187" s="14"/>
+      <c r="J187" s="11"/>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="H188" s="7"/>
-      <c r="J188" s="14"/>
+      <c r="J188" s="11"/>
     </row>
     <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="H189" s="7"/>
-      <c r="J189" s="14"/>
+      <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="H190" s="7"/>
-      <c r="J190" s="14"/>
+      <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="H191" s="7"/>
-      <c r="J191" s="14"/>
+      <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="H192" s="7"/>
-      <c r="J192" s="14"/>
+      <c r="J192" s="11"/>
     </row>
     <row r="193" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="H193" s="7"/>
-      <c r="J193" s="14"/>
+      <c r="J193" s="11"/>
     </row>
     <row r="194" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="H194" s="7"/>
-      <c r="J194" s="14"/>
+      <c r="J194" s="11"/>
     </row>
     <row r="195" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="H195" s="7"/>
-      <c r="J195" s="14"/>
+      <c r="J195" s="11"/>
     </row>
     <row r="196" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="H196" s="7"/>
-      <c r="J196" s="14"/>
+      <c r="J196" s="11"/>
     </row>
     <row r="197" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="H197" s="7"/>
-      <c r="J197" s="14"/>
+      <c r="J197" s="11"/>
     </row>
     <row r="198" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="H198" s="7"/>
-      <c r="J198" s="14"/>
+      <c r="J198" s="11"/>
     </row>
     <row r="199" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="H199" s="7"/>
-      <c r="J199" s="14"/>
+      <c r="J199" s="11"/>
     </row>
     <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
@@ -5099,77 +4949,77 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="60" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J77">
-    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J71 J73:J76">
-    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="35" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="34" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I71 I73:I76">
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="32" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I77">
-    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J6">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-3/hackerearth/phase-3-graph-2/hackerearth-phase-3-graph-2.xlsx
+++ b/level-3/hackerearth/phase-3-graph-2/hackerearth-phase-3-graph-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5224E5-E7FB-4E84-A5AF-909F4A2A4358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEFD1C3-9D0E-4D82-9C56-AF97B971EBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4948,201 +4948,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="38" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="37" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J77">
-    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J71 J73:J76">
-    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="29" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I71 I73:I76">
-    <cfRule type="cellIs" dxfId="28" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I77">
-    <cfRule type="cellIs" dxfId="25" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:J6">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J32 J34:J37">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J38">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I32 I34:I37">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I38">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J127:J129 J131:J134">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J130">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J135">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J127:J135">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J136">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J137">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J137">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:I129 I131:I134">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:I135">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J44" r:id="rId1" display="https://www.hackerearth.com/practice/algorithms/graphs/shortest-path-algorithms/practice-problems/algorithm/ways/" xr:uid="{076DD4F2-F64A-4A1B-917A-BC22154062E0}"/>
     <hyperlink ref="J45" r:id="rId2" display="https://www.hackerearth.com/practice/algorithms/graphs/shortest-path-algorithms/practice-problems/algorithm/trustworthy-network/" xr:uid="{2417F6C3-574A-4F9B-8DA0-F373C2DE05AC}"/>
